--- a/business_configuration.xlsx
+++ b/business_configuration.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="56">
   <si>
     <t>File Name</t>
   </si>
@@ -25,109 +26,163 @@
     <t>Last Name</t>
   </si>
   <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>TelePhoneNumber</t>
+  </si>
+  <si>
     <t>Address</t>
   </si>
   <si>
-    <t>DOB</t>
+    <t>CORPORATE_TXN_BENE.csv</t>
+  </si>
+  <si>
+    <t>BeneficiaryFirstName</t>
+  </si>
+  <si>
+    <t>BeneficiaryLastName</t>
+  </si>
+  <si>
+    <t>BeneficiaryBirthDate</t>
+  </si>
+  <si>
+    <t>BeneficiaryTelephoneNumber</t>
+  </si>
+  <si>
+    <t>BeneficiaryAddress1</t>
+  </si>
+  <si>
+    <t>{'BeneficiaryTelephoneNumber':'CONTACT_DETAILS','BeneficiaryLastName':'LASTNAME','BeneficiaryFirstName':'FIRSTNAME','CustomerNO':'CUSTOMER_ID'}</t>
+  </si>
+  <si>
+    <t>CORPORATE_TXN_SENDER.csv</t>
+  </si>
+  <si>
+    <t>CounterPartyFirstName</t>
+  </si>
+  <si>
+    <t>CounterPartyLastName</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>CounterPartyAddress1</t>
+  </si>
+  <si>
+    <t>{'CounterPartyCustomerType':'CUSTOMER_TYPE',CounterPartyLastName':'LASTNAME','CounterPartyFirstName':'FIRSTNAME','CustomerNO':'CUSTOMER_ID'}</t>
+  </si>
+  <si>
+    <t>DEDUP_ACCIDENT_INSURANCE.csv</t>
+  </si>
+  <si>
+    <t>SenderFN</t>
+  </si>
+  <si>
+    <t>SenderLN</t>
+  </si>
+  <si>
+    <t>SenderMPN</t>
+  </si>
+  <si>
+    <t>SenderAddress1</t>
+  </si>
+  <si>
+    <t>{'SenderLN':'LASTNAME','SenderFN':'FIRSTNAME'}</t>
+  </si>
+  <si>
+    <t>DEDUP_E-LOADING.csv</t>
+  </si>
+  <si>
+    <t>ReceiverFN</t>
+  </si>
+  <si>
+    <t>ReceiverLN</t>
+  </si>
+  <si>
+    <t>ReceiverMPN</t>
+  </si>
+  <si>
+    <t>ReceiverAddress1</t>
+  </si>
+  <si>
+    <t>{'ReceiverLN':'LASTNAME','ReceiverFN':'FIRSTNAME','ReceiverMPN':'CONTACT_DETAILS'}</t>
+  </si>
+  <si>
+    <t>DOMESTIC_INWARD_TXN_BENE.csv</t>
+  </si>
+  <si>
+    <t>{'BeneficiaryLastName':'LASTNAME','BeneficiaryFirstName':'FIRSTNAME','BeneficiaryMiddleName':'MIDDLENAME','BeneficiaryTelephoneNumber':'CONTACT_DETAILS','CustomerNO':'CUSTOMER_ID',}</t>
+  </si>
+  <si>
+    <t>DOMESTIC_INWARD_TXN_SENDER.csv</t>
+  </si>
+  <si>
+    <t>{'CustomerNumber':'CUSTOMER_ID'}</t>
+  </si>
+  <si>
+    <t>DOMESTIC_OUTWARD_TXN_BENE.csv</t>
+  </si>
+  <si>
+    <t>{'CustomerNO':'CUSTOMER_ID'}</t>
+  </si>
+  <si>
+    <t>DOMESTIC_OUTWARD_TXN_SENDER.csv</t>
+  </si>
+  <si>
+    <t>{'CustomerNumber':'CUSTOMER_ID','CounterPartyFirstName':'FIRSTNAME'}</t>
+  </si>
+  <si>
+    <t>INTERNATIONAL_INWARD_TXN_BENE.csv</t>
+  </si>
+  <si>
+    <t>{'BeneficiaryFirstName':'FIRSTNAME','BeneficiaryTelephoneNumber':'CONTACT_DETAILS','CustomerNO':'CUSTOMER_ID',}</t>
+  </si>
+  <si>
+    <t>INTERNATIONAL_INWARD_TXN_SENDER.csv</t>
+  </si>
+  <si>
+    <t>INTERNATIONAL_OUTWARD_TXN_BENE.csv</t>
+  </si>
+  <si>
+    <t>INTERNATIONAL_OUTWARD_TXN_SENDER.csv</t>
+  </si>
+  <si>
+    <t>MC_BOUGHT_FROM_CUSTOMER.csv</t>
+  </si>
+  <si>
+    <t>CustomerFirstName</t>
+  </si>
+  <si>
+    <t>CustomerLastName</t>
+  </si>
+  <si>
+    <t>CustomerPhoneNumber</t>
+  </si>
+  <si>
+    <t>CustomerAddress1</t>
+  </si>
+  <si>
+    <t>{'BranchCode':'BRANCHCODE','CustomerFirstName':'FIRSTNAME','CustomerMiddleName':'MIDDLENAME','CustomerLastName':'LASTNAME','CustomerPhoneNumber':'CONTACT_DETAILS'}</t>
   </si>
   <si>
     <t>PAWNING_TRANSACTION.csv</t>
   </si>
   <si>
-    <t>CUSTOMERFIRSTNAME</t>
-  </si>
-  <si>
-    <t>CUSTOMERLASTNAME</t>
-  </si>
-  <si>
-    <t>CUSTOMERADDRESS1</t>
-  </si>
-  <si>
-    <t>INTERNATIONAL_OUTWARD_TXN_SENDER.csv</t>
-  </si>
-  <si>
-    <t>CounterPartyFirstName</t>
-  </si>
-  <si>
-    <t>CounterPartyLastName</t>
-  </si>
-  <si>
-    <t>CounterPartyAddress1</t>
-  </si>
-  <si>
-    <t>INTERNATIONAL_TXN.csv</t>
-  </si>
-  <si>
-    <t>NameOfCorrespondentBank</t>
-  </si>
-  <si>
-    <t>CorrespondentBankAddress1</t>
-  </si>
-  <si>
-    <t>INTERNATIONAL_INWARD_TXN_BENE.csv</t>
-  </si>
-  <si>
-    <t>BeneficiaryFirstName</t>
-  </si>
-  <si>
-    <t>BeneficiaryLastName</t>
-  </si>
-  <si>
-    <t>BeneficiaryAddress1</t>
-  </si>
-  <si>
-    <t>BeneficiaryBirthDate</t>
-  </si>
-  <si>
-    <t>CORPORATE_TXN_BENE.csv</t>
-  </si>
-  <si>
-    <t>BENEFICIARYFIRSTNAME</t>
-  </si>
-  <si>
-    <t>BENEFICIARYLASTNAME</t>
-  </si>
-  <si>
-    <t>BENEFICIARYADDRESS1</t>
-  </si>
-  <si>
-    <t>BENEFICIARYBIRTHDATE</t>
-  </si>
-  <si>
-    <t>CORPORATE_TXN_SENDER.csv</t>
-  </si>
-  <si>
-    <t>COUNTERPARTYFIRSTNAME</t>
-  </si>
-  <si>
-    <t>COUNTERPARTYLASTNAME</t>
-  </si>
-  <si>
-    <t>COUNTERPARTYADDRESS1</t>
-  </si>
-  <si>
-    <t>NAMEOFCORRESPONDENTBANK</t>
-  </si>
-  <si>
-    <t>CORRESPONDENTBANKADDRESS1</t>
+    <t>TO_BANK_OUTWARD_TXN_BENE.csv</t>
+  </si>
+  <si>
+    <t>{'BeneficiaryTelephoneNumber':'CONTACT_DETAILS','CustomerNO':'CUSTOMER_ID','DOB':'DATEOFBIRTH'}</t>
   </si>
   <si>
     <t>TO_BANK_OUTWARD_TXN_SENDER.csv</t>
   </si>
   <si>
-    <t>TO_BANK_OUTWARD_TXN_BENE.csv</t>
-  </si>
-  <si>
-    <t>MC_BOUGHT_FROM_CUSTOMER.csv</t>
-  </si>
-  <si>
-    <t>CustomerFirstName</t>
-  </si>
-  <si>
-    <t>CustomerLastName</t>
-  </si>
-  <si>
-    <t>CustomerAddress1</t>
+    <t>{'CounterPartyFirstName':'FIRSTNAME','CounterPartyMiddleName':'MIDDLENAME','CustomerNumber':'CUSTOMER_ID','DOB':'DATEOFBIRTH'}</t>
+  </si>
+  <si>
+    <t>{'CounterPartyCustomerType'}</t>
   </si>
 </sst>
 </file>
@@ -140,7 +195,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,18 +210,6 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Cambria"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11.5"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -313,7 +356,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -323,54 +366,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,160 +697,142 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1389,22 +1366,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="48.4285714285714" customWidth="1"/>
     <col min="2" max="2" width="34.8571428571429" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
     <col min="4" max="4" width="36.7142857142857" customWidth="1"/>
     <col min="5" max="5" width="24.1428571428571" customWidth="1"/>
+    <col min="6" max="6" width="22.8571428571429" customWidth="1"/>
+    <col min="7" max="7" width="146.095238095238" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1417,177 +1396,752 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="43.8190476190476" customWidth="1"/>
+    <col min="2" max="2" width="22.4571428571429" customWidth="1"/>
+    <col min="3" max="3" width="22.0952380952381" customWidth="1"/>
+    <col min="4" max="4" width="19.7238095238095" customWidth="1"/>
+    <col min="5" max="5" width="28.4571428571429" customWidth="1"/>
+    <col min="6" max="6" width="21.6380952380952" customWidth="1"/>
+    <col min="7" max="7" width="146.095238095238" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="G3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="9" t="s">
+      <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="F4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="10" t="s">
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="11" t="s">
+      <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="F5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8" t="s">
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="16"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="17" t="s">
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="8" t="s">
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="8" t="s">
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="13"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
